--- a/dataset/atribut-dataset.xlsx
+++ b/dataset/atribut-dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danusogipurnomo/Job/Hacktiv8/03 - Handcraft/[Master Class] Vol 3 - Data Visualization &amp; Storytelling in Song Dataset/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danusogipurnomo/Job/Hacktiv8/02 - GitHub/others/hacktiv8-labs-bacth-x/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2877669A-FA9C-624A-A8DB-46DC3C11B328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC8AECB-7E44-454D-965F-4E78009E61E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{6574ECA6-B72E-404C-8B46-4AD841167275}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -46,9 +46,6 @@
     <t>artist</t>
   </si>
   <si>
-    <t>top genre</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -58,42 +55,9 @@
     <t>bpm</t>
   </si>
   <si>
-    <t>nrgy</t>
-  </si>
-  <si>
-    <t>dnce</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>dur</t>
-  </si>
-  <si>
-    <t>acous</t>
-  </si>
-  <si>
-    <t>spch</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
-    <t>Nama Kolom</t>
-  </si>
-  <si>
-    <t>Nama Kolom Baru</t>
-  </si>
-  <si>
     <t>Judul sebuah lagu</t>
   </si>
   <si>
@@ -107,9 +71,6 @@
   </si>
   <si>
     <t>Tahun saat lagu tersebut dirilis</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Tahun saat lagu tersebut dimasukkan ke Spotify</t>
@@ -177,6 +138,9 @@
   <si>
     <t>Nilai yang menyatakan seberapa akustik lagu tersebut. 
 Semakin tinggi nilainya, maka lagu tersebut berjenis akustik</t>
+  </si>
+  <si>
+    <t>Column</t>
   </si>
 </sst>
 </file>
@@ -551,258 +515,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B4B14D-6B96-C042-AC0B-37B08DE93733}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
